--- a/data/output/FV2504_FV2410/UTILMD/55224.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55224.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="317">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="317">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1061,6 +1061,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U144" totalsRowShown="0">
+  <autoFilter ref="A1:U144"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1350,7 +1380,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8309,5 +8342,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55224.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55224.xlsx
@@ -1935,7 +1935,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4459,7 +4459,7 @@
         <v>286</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5571,7 +5571,7 @@
         <v>289</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5749,52 +5749,52 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="2"/>
       <c r="L77" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O77" s="5" t="s">
+      <c r="O77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P77" s="5"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V77" s="5"/>
+      <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">
@@ -5995,7 +5995,7 @@
         <v>290</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6205,7 +6205,7 @@
         <v>292</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6617,7 +6617,7 @@
         <v>293</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6767,7 +6767,7 @@
         <v>294</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7277,52 +7277,52 @@
       <c r="V105" s="5"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="2"/>
       <c r="F106" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5" t="s">
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K106" s="5"/>
+      <c r="K106" s="2"/>
       <c r="L106" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="M106" s="5" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N106" s="5" t="s">
+      <c r="N106" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O106" s="5" t="s">
+      <c r="O106" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P106" s="5"/>
+      <c r="P106" s="2"/>
       <c r="Q106" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-      <c r="U106" s="5" t="s">
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V106" s="5"/>
+      <c r="V106" s="2"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -7505,52 +7505,52 @@
       <c r="V109" s="5"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5" t="s">
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K110" s="5"/>
+      <c r="K110" s="2"/>
       <c r="L110" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="M110" s="5" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N110" s="5" t="s">
+      <c r="N110" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O110" s="5" t="s">
+      <c r="O110" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P110" s="5"/>
+      <c r="P110" s="2"/>
       <c r="Q110" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5" t="s">
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V110" s="5"/>
+      <c r="V110" s="2"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -7755,7 +7755,7 @@
         <v>294</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7961,7 +7961,7 @@
         <v>294</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8167,7 +8167,7 @@
         <v>294</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8481,7 +8481,7 @@
         <v>298</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9027,52 +9027,52 @@
       <c r="V138" s="5"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E139" s="5"/>
+      <c r="E139" s="2"/>
       <c r="F139" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5" t="s">
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K139" s="5"/>
+      <c r="K139" s="2"/>
       <c r="L139" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="M139" s="5" t="s">
+      <c r="M139" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N139" s="5" t="s">
+      <c r="N139" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O139" s="5" t="s">
+      <c r="O139" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P139" s="5"/>
+      <c r="P139" s="2"/>
       <c r="Q139" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="R139" s="5"/>
-      <c r="S139" s="5"/>
-      <c r="T139" s="5"/>
-      <c r="U139" s="5" t="s">
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V139" s="5"/>
+      <c r="V139" s="2"/>
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="5" t="s">
@@ -9189,48 +9189,48 @@
       <c r="V141" s="5"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5" t="s">
+      <c r="C142" s="2"/>
+      <c r="D142" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="2"/>
       <c r="F142" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5" t="s">
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K142" s="5"/>
+      <c r="K142" s="2"/>
       <c r="L142" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="M142" s="5" t="s">
+      <c r="M142" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5" t="s">
+      <c r="N142" s="2"/>
+      <c r="O142" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P142" s="5"/>
+      <c r="P142" s="2"/>
       <c r="Q142" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5" t="s">
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V142" s="5"/>
+      <c r="V142" s="2"/>
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="5" t="s">
